--- a/Documentation/Working_Documents/BubbleBlowerFan_BOM.xlsx
+++ b/Documentation/Working_Documents/BubbleBlowerFan_BOM.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-Team/Shared Documents/Server/3 AT Library/WIP/Bubble Blower Fan/Bubble-Blower-Fan/Documentation/Working_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D69EE6C3-14AB-4E25-964C-5E84F89FDCB3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5700E53A-2299-4DFF-B95C-B2FE78D30DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="BubbleBlowerFan_BOM_v1.0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Total Cost</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>Date Created: 2022-Aug-02</t>
+  </si>
+  <si>
+    <t>MJ-3507</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/cui-devices/MJ-3507/2160900</t>
   </si>
 </sst>
 </file>
@@ -780,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,7 +830,7 @@
       <c r="D2" s="12"/>
       <c r="E2" s="5">
         <f>SUM(I5:I11)+G14</f>
-        <v>4.4800000000000004</v>
+        <v>5.74</v>
       </c>
       <c r="F2" s="24">
         <f>SUM(H13:H13)/60</f>
@@ -912,6 +918,9 @@
       <c r="B6" t="s">
         <v>31</v>
       </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
       <c r="D6" t="s">
         <v>32</v>
       </c>
@@ -921,16 +930,20 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9">
+        <v>1.26</v>
+      </c>
       <c r="H6" s="17">
         <f>G6/F6</f>
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="I6" s="17">
         <f>H6*E6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="8"/>
+        <v>1.26</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1100,12 +1113,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="38b325e6-602c-452a-8617-173bf47082c5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8cf100d1-0775-4feb-8634-62999c4541bc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1346,20 +1361,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="38b325e6-602c-452a-8617-173bf47082c5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8cf100d1-0775-4feb-8634-62999c4541bc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="8cf100d1-0775-4feb-8634-62999c4541bc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="38b325e6-602c-452a-8617-173bf47082c5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1384,12 +1406,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="38b325e6-602c-452a-8617-173bf47082c5"/>
-    <ds:schemaRef ds:uri="8cf100d1-0775-4feb-8634-62999c4541bc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>